--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pabba\MynewFramework\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01B11811-AD30-4F7C-9F00-AA91570A0664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F937A71-130A-4B67-8825-A04BED56B5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{258B1DB1-C48E-4AE9-BA18-33995BE40D15}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{258B1DB1-C48E-4AE9-BA18-33995BE40D15}"/>
   </bookViews>
   <sheets>
     <sheet name="User_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Invalid_Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>email</t>
   </si>
@@ -52,6 +53,21 @@
   </si>
   <si>
     <t>Passwo</t>
+  </si>
+  <si>
+    <t>RunTest</t>
+  </si>
+  <si>
+    <t>test@gmai.com</t>
+  </si>
+  <si>
+    <t>passwredsd</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -416,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0275A7-7AAB-47F0-BDB9-44ACD671CD46}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,4 +469,68 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5008DE9-2C26-427C-9EE6-22FD88DFD67A}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{E0C5D4ED-BB38-4F06-9F81-1F095A7F9971}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{4D17F0F7-1379-4626-9D96-0DD221A10638}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{8874230C-4778-40C6-8BC2-35ABDA0D8BBB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>